--- a/results/mp/deberta/corona/confidence/210/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -133,12 +133,12 @@
     <t>well</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -148,10 +148,10 @@
     <t>safety</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>hope</t>
@@ -1621,25 +1621,25 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6939655172413793</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L25">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1647,25 +1647,25 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.6764705882352942</v>
+        <v>0.6736401673640168</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="N26">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1751,25 +1751,25 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5987841945288754</v>
+        <v>0.5842105263157895</v>
       </c>
       <c r="L30">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="M30">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="N30">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>132</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5842105263157895</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L31">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="M31">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="N31">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="10:17">
